--- a/biology/Biochimie/Israel_Chemicals/Israel_Chemicals.xlsx
+++ b/biology/Biochimie/Israel_Chemicals/Israel_Chemicals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Israel Chemicals (ICL) est une entreprise israélienne de la biochimie, fondée en 1968 et basée à Tel-Aviv. Sa filiale Dead Sea Works extrait de la potasse à Sdom, faisant de l'entreprise l'un des principaux exportateurs de potasse mondiaux.
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En octobre 2014, Kurita Water acquiert APW, l'activité de traitement de l'eau de Israel Chemicals pour 250 millions d'euros[3].
-En décembre 2017, Israel Chemicals annonce la vente de ses activités d'addictifs d'hydrocarbures et ses activités dans les produits de protections contre les incendies, pour 1 milliard de dollars, à SK Capital[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En octobre 2014, Kurita Water acquiert APW, l'activité de traitement de l'eau de Israel Chemicals pour 250 millions d'euros.
+En décembre 2017, Israel Chemicals annonce la vente de ses activités d'addictifs d'hydrocarbures et ses activités dans les produits de protections contre les incendies, pour 1 milliard de dollars, à SK Capital.
 </t>
         </is>
       </c>
